--- a/config/爬虫接口配置文件.xlsx
+++ b/config/爬虫接口配置文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\python\Reptile\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE958F0-C40C-416B-9925-6082FEAC9751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8326E5C-E600-4A28-B4DE-ACB915936200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1365" yWindow="1500" windowWidth="25230" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>爬虫接口配置文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,79 @@
     <t>{‘user-agent’: 'Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/78.0.3904.108 Safari/537.36', 
 'upgrade-insecure-requests': '1', 
 'cookie': 'lastCity=100010000; Hm_lvt_194df3105ad7148dcf2b98a91b5e727a=1586934312,1586935682,1587100806,1587104745; __c=1587104745; __g=-; __l=l=%2Fwww.zhipin.com%2Fc101280600%2F%3Fquery%3D%25E8%25BD%25AF%25E4%25BB%25B6%25E6%25B5%258B%25E8%25AF%2595%26page%3D14&amp;r=&amp;friend_source=0&amp;friend_source=0; __a=43720872.1586934311.1587100806.1587104745.19.4.5.19; Hm_lpvt_194df3105ad7148dcf2b98a91b5e727a=1587105120; __zp_stoken__=a1c38hW4esI9q0PGX7W4uAcP2FhqN1uPmA2ilmOeXNXzWZuZ2tBjz3T%2F5hd2y0dfiFKQciLV16Hgd1%2FXuahWolUlLk1k8q47yPojuMq4ce0cQDEh36pu4HH6bVH1m%2FcUtBBM; __zp_sseed__=+4HW+kYur3g36YP41WQfJ8KXQodIrPyHWSVNWeptu6s=; __zp_sname__=d05572cd; __zp_sts__=1587105120242'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方财富访问A股信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+'pn': 1,
+'pz': 50,
+'po': 1,
+'np': 1,
+'ut': 'b2884a393a59ad64002292a3e90d46a5',
+'fltt': 2,
+'invt': 2,
+'fid0': 'f4001',
+'fid': 'f3',
+'fs': 'm:0+t:6+f:!2,m:0+t:13+f:!2,m:0+t:80+f:!2,m:1+t:2+f:!2,m:1+t:23+f:!2',
+'stat': 1,
+'fields': 'f12,f14,f2,f3,f62,f184,f66,f69,f72,f75,f78,f81,f84,f87,f204,f205,f124',
+'rt': '52909395',
+'cb': 'jQuery18306380779290944183_1587281762105',
+'_': '1587281877497'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://push2.eastmoney.com/api/qt/clist/get?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'User-Agent'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/74.0.3729.157 Safari/537.36'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,11 +304,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -518,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,13 +607,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -559,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -583,7 +656,7 @@
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -591,6 +664,23 @@
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -600,8 +690,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{3539613B-A2ED-4F92-BE0E-09A4835C000F}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{B168F573-84B7-4336-9501-F9BADD55E89F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>